--- a/Code/Results/Cases/Case_0_77/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_77/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>12.17169156209474</v>
+        <v>13.43319801795061</v>
       </c>
       <c r="D2">
-        <v>4.838583629999678</v>
+        <v>5.025506521011489</v>
       </c>
       <c r="E2">
-        <v>11.37447563435219</v>
+        <v>13.79870895180907</v>
       </c>
       <c r="F2">
-        <v>15.67799052291685</v>
+        <v>23.73888337064486</v>
       </c>
       <c r="G2">
-        <v>18.57487810587209</v>
+        <v>27.78686553745599</v>
       </c>
       <c r="H2">
-        <v>7.748851374233376</v>
+        <v>14.12461759485033</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>24.86476000400734</v>
+        <v>16.65151356881643</v>
       </c>
       <c r="L2">
-        <v>6.036945230137663</v>
+        <v>9.202506850619693</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.28162791899794</v>
+        <v>21.35583386709204</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>11.56753291887103</v>
+        <v>13.33295043205572</v>
       </c>
       <c r="D3">
-        <v>4.66293007955896</v>
+        <v>4.968424097414155</v>
       </c>
       <c r="E3">
-        <v>10.8807180120544</v>
+        <v>13.73667503250987</v>
       </c>
       <c r="F3">
-        <v>15.45959405521977</v>
+        <v>23.8542960704896</v>
       </c>
       <c r="G3">
-        <v>18.33171380815553</v>
+        <v>27.98563544677185</v>
       </c>
       <c r="H3">
-        <v>7.876576404647744</v>
+        <v>14.20283793606021</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>23.26685918971019</v>
+        <v>15.91180331386633</v>
       </c>
       <c r="L3">
-        <v>5.908252469379329</v>
+        <v>9.204210684375211</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.39662993102072</v>
+        <v>21.49593963771159</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>11.18828934349794</v>
+        <v>13.27440995492887</v>
       </c>
       <c r="D4">
-        <v>4.551625330455598</v>
+        <v>4.932864739493822</v>
       </c>
       <c r="E4">
-        <v>10.57375001781918</v>
+        <v>13.70166410780223</v>
       </c>
       <c r="F4">
-        <v>15.35217149122789</v>
+        <v>23.93395073440352</v>
       </c>
       <c r="G4">
-        <v>18.23105926062545</v>
+        <v>28.12111684914884</v>
       </c>
       <c r="H4">
-        <v>7.963581573060219</v>
+        <v>14.25400941028919</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>22.22902457291369</v>
+        <v>15.43885356262375</v>
       </c>
       <c r="L4">
-        <v>5.831352357596725</v>
+        <v>9.206772773886609</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.48911193793833</v>
+        <v>21.58851270462081</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>11.03186401527406</v>
+        <v>13.2513343797739</v>
       </c>
       <c r="D5">
-        <v>4.505443504908375</v>
+        <v>4.91825512949019</v>
       </c>
       <c r="E5">
-        <v>10.44787938875647</v>
+        <v>13.68818202697163</v>
       </c>
       <c r="F5">
-        <v>15.31489527453457</v>
+        <v>23.96860738416449</v>
       </c>
       <c r="G5">
-        <v>18.20175054666379</v>
+        <v>28.17967415051406</v>
       </c>
       <c r="H5">
-        <v>8.001076898444644</v>
+        <v>14.27565216995571</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>21.79182149283899</v>
+        <v>15.24161966241907</v>
       </c>
       <c r="L5">
-        <v>5.800571558382509</v>
+        <v>9.208198509082917</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.5319422347706</v>
+        <v>21.62787751976444</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11.00578273987802</v>
+        <v>13.24755045382205</v>
       </c>
       <c r="D6">
-        <v>4.497726661441337</v>
+        <v>4.915822314480311</v>
       </c>
       <c r="E6">
-        <v>10.42693722965432</v>
+        <v>13.68599106328844</v>
       </c>
       <c r="F6">
-        <v>15.30909139114525</v>
+        <v>23.97449436096376</v>
       </c>
       <c r="G6">
-        <v>18.19757411069325</v>
+        <v>28.18959881685347</v>
       </c>
       <c r="H6">
-        <v>8.007422916224325</v>
+        <v>14.27929362967479</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>21.7183618782212</v>
+        <v>15.2086040793515</v>
       </c>
       <c r="L6">
-        <v>5.79549474120314</v>
+        <v>9.20845831392883</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.53935460073413</v>
+        <v>21.63451293146479</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>11.1861870571787</v>
+        <v>13.2740955618652</v>
       </c>
       <c r="D7">
-        <v>4.551005781285921</v>
+        <v>4.932668177917066</v>
       </c>
       <c r="E7">
-        <v>10.5720553856892</v>
+        <v>13.70147909077273</v>
       </c>
       <c r="F7">
-        <v>15.35164275531384</v>
+        <v>23.93440925017522</v>
       </c>
       <c r="G7">
-        <v>18.23061733844572</v>
+        <v>28.12189306061071</v>
       </c>
       <c r="H7">
-        <v>7.964079136976103</v>
+        <v>14.25429809432054</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>22.22318611347483</v>
+        <v>15.43621152171547</v>
       </c>
       <c r="L7">
-        <v>5.83093495179595</v>
+        <v>9.20679045599061</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.48966920083488</v>
+        <v>21.58903695755878</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>11.96520954698169</v>
+        <v>13.39802161099211</v>
       </c>
       <c r="D8">
-        <v>4.778759569041132</v>
+        <v>5.005936108467584</v>
       </c>
       <c r="E8">
-        <v>11.20511540480792</v>
+        <v>13.77668778292745</v>
       </c>
       <c r="F8">
-        <v>15.59703704200221</v>
+        <v>23.77684496305857</v>
       </c>
       <c r="G8">
-        <v>18.48064982060548</v>
+        <v>27.85259420519876</v>
       </c>
       <c r="H8">
-        <v>7.791035949700189</v>
+        <v>14.1509351009285</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>24.32556077401989</v>
+        <v>16.40047573125465</v>
       </c>
       <c r="L8">
-        <v>5.992146966778716</v>
+        <v>9.202780021005891</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.31652406040152</v>
+        <v>21.40277982016207</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>13.41985651932346</v>
+        <v>13.66387255244034</v>
       </c>
       <c r="D9">
-        <v>5.196338807984948</v>
+        <v>5.145155475848163</v>
       </c>
       <c r="E9">
-        <v>12.40982240910914</v>
+        <v>13.94805821406249</v>
       </c>
       <c r="F9">
-        <v>16.29732361602315</v>
+        <v>23.53821091804529</v>
       </c>
       <c r="G9">
-        <v>19.3754567184115</v>
+        <v>27.4324800205476</v>
       </c>
       <c r="H9">
-        <v>7.525595453123318</v>
+        <v>13.97321226305442</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>27.99986298813855</v>
+        <v>18.13455813549566</v>
       </c>
       <c r="L9">
-        <v>6.324037224206609</v>
+        <v>9.206918663590709</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.16683526650653</v>
+        <v>21.08974910675762</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>14.43656416254654</v>
+        <v>13.87160136469021</v>
       </c>
       <c r="D10">
-        <v>5.483596623804175</v>
+        <v>5.244189697498191</v>
       </c>
       <c r="E10">
-        <v>13.26538186426538</v>
+        <v>14.08773986681142</v>
       </c>
       <c r="F10">
-        <v>16.95292178292025</v>
+        <v>23.4065613298959</v>
       </c>
       <c r="G10">
-        <v>20.29730130961064</v>
+        <v>27.19149939364818</v>
       </c>
       <c r="H10">
-        <v>7.384423997305236</v>
+        <v>13.85789980352174</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>30.42919313878374</v>
+        <v>19.30419622444174</v>
       </c>
       <c r="L10">
-        <v>6.57615153440929</v>
+        <v>9.217236395642265</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>12.19503265153776</v>
+        <v>20.89197036954377</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>14.88677404235908</v>
+        <v>13.96845510094231</v>
       </c>
       <c r="D11">
-        <v>5.609747225333222</v>
+        <v>5.288428713771115</v>
       </c>
       <c r="E11">
-        <v>13.64712514315406</v>
+        <v>14.15408949993576</v>
       </c>
       <c r="F11">
-        <v>17.2827459025697</v>
+        <v>23.3563123180338</v>
       </c>
       <c r="G11">
-        <v>20.77590749136741</v>
+        <v>27.09695249776254</v>
       </c>
       <c r="H11">
-        <v>7.334040024370331</v>
+        <v>13.80876390007036</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>31.47661095284864</v>
+        <v>19.812228573458</v>
       </c>
       <c r="L11">
-        <v>6.69239483136495</v>
+        <v>9.223498870974957</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>12.24256764249964</v>
+        <v>20.80907083916158</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>15.055435698253</v>
+        <v>14.00544025873686</v>
       </c>
       <c r="D12">
-        <v>5.656848311703118</v>
+        <v>5.305055304432815</v>
       </c>
       <c r="E12">
-        <v>13.79054864209525</v>
+        <v>14.17960117576173</v>
       </c>
       <c r="F12">
-        <v>17.41222331875076</v>
+        <v>23.33868253038955</v>
       </c>
       <c r="G12">
-        <v>20.9656996293238</v>
+        <v>27.06334886553498</v>
       </c>
       <c r="H12">
-        <v>7.317144839290421</v>
+        <v>13.79063581839381</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>31.8650295025578</v>
+        <v>20.00105810024045</v>
       </c>
       <c r="L12">
-        <v>6.736619322235763</v>
+        <v>9.226094662543813</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>12.26592615548031</v>
+        <v>20.77870285737411</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>15.0191931144025</v>
+        <v>13.99746159652836</v>
       </c>
       <c r="D13">
-        <v>5.646734278274121</v>
+        <v>5.301480203885816</v>
       </c>
       <c r="E13">
-        <v>13.75971106118777</v>
+        <v>14.17408987170619</v>
       </c>
       <c r="F13">
-        <v>17.38413393846684</v>
+        <v>23.34241703596632</v>
       </c>
       <c r="G13">
-        <v>20.92444416049725</v>
+        <v>27.07048770892707</v>
       </c>
       <c r="H13">
-        <v>7.320683150533826</v>
+        <v>13.7945187193176</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>31.78174064240413</v>
+        <v>19.96054955811304</v>
       </c>
       <c r="L13">
-        <v>6.727085890293294</v>
+        <v>9.225525657254749</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>12.26065157212036</v>
+        <v>20.78519747061768</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>14.90068671128637</v>
+        <v>13.97149187869805</v>
       </c>
       <c r="D14">
-        <v>5.613635769218561</v>
+        <v>5.289799164285375</v>
       </c>
       <c r="E14">
-        <v>13.65894770272378</v>
+        <v>14.1561807158648</v>
       </c>
       <c r="F14">
-        <v>17.29330614673166</v>
+        <v>23.35483381000205</v>
       </c>
       <c r="G14">
-        <v>20.79135039216775</v>
+        <v>27.09414365485092</v>
       </c>
       <c r="H14">
-        <v>7.332605115657692</v>
+        <v>13.80726289278914</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>31.50873054524204</v>
+        <v>19.8278353480906</v>
       </c>
       <c r="L14">
-        <v>6.696029176035473</v>
+        <v>9.223707940285008</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>12.24437995347915</v>
+        <v>20.80655187588351</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>14.82785944904865</v>
+        <v>13.95562398198389</v>
       </c>
       <c r="D15">
-        <v>5.593274311645127</v>
+        <v>5.282627550508355</v>
       </c>
       <c r="E15">
-        <v>13.59707799101474</v>
+        <v>14.14526065209841</v>
       </c>
       <c r="F15">
-        <v>17.2382687601251</v>
+        <v>23.36262191345931</v>
       </c>
       <c r="G15">
-        <v>20.71094056438902</v>
+        <v>27.10892092256303</v>
       </c>
       <c r="H15">
-        <v>7.340198088146674</v>
+        <v>13.8151314327653</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>31.34043657652994</v>
+        <v>19.74607905848043</v>
       </c>
       <c r="L15">
-        <v>6.677032349298154</v>
+        <v>9.22262370985073</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>12.23512141822152</v>
+        <v>20.81976567982561</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>14.40688926003984</v>
+        <v>13.86531660386784</v>
       </c>
       <c r="D16">
-        <v>5.475259641092338</v>
+        <v>5.24128145707528</v>
       </c>
       <c r="E16">
-        <v>13.2402782428958</v>
+        <v>14.08345880384061</v>
       </c>
       <c r="F16">
-        <v>16.93200634642205</v>
+        <v>23.4100402529971</v>
       </c>
       <c r="G16">
-        <v>20.26721999846885</v>
+        <v>27.19798432156321</v>
       </c>
       <c r="H16">
-        <v>7.388011466219499</v>
+        <v>13.86117786150963</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>30.35958763502079</v>
+        <v>19.27050291596231</v>
       </c>
       <c r="L16">
-        <v>6.56858444887922</v>
+        <v>9.216858592543044</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.19265639355666</v>
+        <v>20.89753097119914</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>14.14544222242984</v>
+        <v>13.81049829971005</v>
       </c>
       <c r="D17">
-        <v>5.401687956138799</v>
+        <v>5.215702477384736</v>
       </c>
       <c r="E17">
-        <v>13.01943301939944</v>
+        <v>14.04625246678165</v>
       </c>
       <c r="F17">
-        <v>16.75224858259984</v>
+        <v>23.44160764486516</v>
       </c>
       <c r="G17">
-        <v>20.01023373838026</v>
+        <v>27.25650574859248</v>
       </c>
       <c r="H17">
-        <v>7.421021541519726</v>
+        <v>13.89027707383807</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>29.74314589760175</v>
+        <v>18.97252246073845</v>
       </c>
       <c r="L17">
-        <v>6.502439740322215</v>
+        <v>9.213722849518566</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.17576253379994</v>
+        <v>20.94705378822214</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>13.99390928458735</v>
+        <v>13.77919194179887</v>
       </c>
       <c r="D18">
-        <v>5.358946461140367</v>
+        <v>5.200914200828429</v>
       </c>
       <c r="E18">
-        <v>12.89170941859792</v>
+        <v>14.02511772453844</v>
       </c>
       <c r="F18">
-        <v>16.65182929617549</v>
+        <v>23.46067094802112</v>
       </c>
       <c r="G18">
-        <v>19.86800220129848</v>
+        <v>27.29158296425252</v>
       </c>
       <c r="H18">
-        <v>7.441297894719169</v>
+        <v>13.90732662148194</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>29.38314883567812</v>
+        <v>18.79887355652386</v>
       </c>
       <c r="L18">
-        <v>6.464542334654641</v>
+        <v>9.212067010098499</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.16929160579729</v>
+        <v>20.97620310489464</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>13.94240641764062</v>
+        <v>13.76863147524469</v>
       </c>
       <c r="D19">
-        <v>5.344402570461574</v>
+        <v>5.195894382804901</v>
       </c>
       <c r="E19">
-        <v>12.8483465290626</v>
+        <v>14.01800795309943</v>
       </c>
       <c r="F19">
-        <v>16.61833811115106</v>
+        <v>23.46728077333363</v>
       </c>
       <c r="G19">
-        <v>19.82080132209946</v>
+        <v>27.3037019536073</v>
       </c>
       <c r="H19">
-        <v>7.448378924938114</v>
+        <v>13.91315293460528</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>29.26032404041985</v>
+        <v>18.73969426973193</v>
       </c>
       <c r="L19">
-        <v>6.451736818629443</v>
+        <v>9.211531785142931</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.16764664082461</v>
+        <v>20.98618656912442</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>14.17339376652329</v>
+        <v>13.8163108686402</v>
       </c>
       <c r="D20">
-        <v>5.409563923509349</v>
+        <v>5.218433327242206</v>
       </c>
       <c r="E20">
-        <v>13.04301525707576</v>
+        <v>14.0501858038802</v>
       </c>
       <c r="F20">
-        <v>16.77107611075602</v>
+        <v>23.43815332357505</v>
       </c>
       <c r="G20">
-        <v>20.0370123882586</v>
+        <v>27.25012913487537</v>
       </c>
       <c r="H20">
-        <v>7.417372700124539</v>
+        <v>13.88714706732019</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>29.8093292274452</v>
+        <v>19.00447746046661</v>
       </c>
       <c r="L20">
-        <v>6.5094658546998</v>
+        <v>9.214041371183731</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>12.17722224201852</v>
+        <v>20.94171311048806</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>14.93554472014764</v>
+        <v>13.97911167757828</v>
       </c>
       <c r="D21">
-        <v>5.623375900849846</v>
+        <v>5.293233652080723</v>
       </c>
       <c r="E21">
-        <v>13.68857552991847</v>
+        <v>14.16143072016116</v>
       </c>
       <c r="F21">
-        <v>17.31985996159512</v>
+        <v>23.35114865464108</v>
       </c>
       <c r="G21">
-        <v>20.83021113713855</v>
+        <v>27.08713539873062</v>
       </c>
       <c r="H21">
-        <v>7.329042456901051</v>
+        <v>13.80350662099614</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>31.58914251788815</v>
+        <v>19.86691378096278</v>
       </c>
       <c r="L21">
-        <v>6.705145830768214</v>
+        <v>9.224235770537952</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>12.24901108965638</v>
+        <v>20.80025171085428</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>15.423018051901</v>
+        <v>14.08729677696336</v>
       </c>
       <c r="D22">
-        <v>5.759206662884706</v>
+        <v>5.341382982297663</v>
       </c>
       <c r="E22">
-        <v>14.10385921052114</v>
+        <v>14.23638010708071</v>
       </c>
       <c r="F22">
-        <v>17.70522401737513</v>
+        <v>23.30244239675661</v>
       </c>
       <c r="G22">
-        <v>21.39844925476702</v>
+        <v>26.99344223113803</v>
       </c>
       <c r="H22">
-        <v>7.284143163358113</v>
+        <v>13.75163309054258</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>32.70450858942219</v>
+        <v>20.40983321929972</v>
       </c>
       <c r="L22">
-        <v>6.834226948238993</v>
+        <v>9.232205257406036</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>12.32731349162731</v>
+        <v>20.71377229740573</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>15.163830104897</v>
+        <v>14.02940306561503</v>
       </c>
       <c r="D23">
-        <v>5.687073956336601</v>
+        <v>5.315755104031731</v>
       </c>
       <c r="E23">
-        <v>13.88283642509427</v>
+        <v>14.19617871766742</v>
       </c>
       <c r="F23">
-        <v>17.49709694639969</v>
+        <v>23.32768763630002</v>
       </c>
       <c r="G23">
-        <v>21.09061394275689</v>
+        <v>27.04226374061602</v>
       </c>
       <c r="H23">
-        <v>7.30686541139292</v>
+        <v>13.77906325496765</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>32.1135656382733</v>
+        <v>20.12199100266949</v>
       </c>
       <c r="L23">
-        <v>6.765229835023669</v>
+        <v>9.227832675166418</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>12.28253504650161</v>
+        <v>20.75937888640503</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>14.16076068011172</v>
+        <v>13.81368235164775</v>
       </c>
       <c r="D24">
-        <v>5.40600458062737</v>
+        <v>5.217198966545896</v>
       </c>
       <c r="E24">
-        <v>13.03235607953655</v>
+        <v>14.04840674448635</v>
       </c>
       <c r="F24">
-        <v>16.76255507495021</v>
+        <v>23.43971217362472</v>
       </c>
       <c r="G24">
-        <v>20.02488859114718</v>
+        <v>27.25300754220785</v>
       </c>
       <c r="H24">
-        <v>7.419018311616774</v>
+        <v>13.88856114646797</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>29.7794251818807</v>
+        <v>18.99003787384024</v>
       </c>
       <c r="L24">
-        <v>6.506288941848775</v>
+        <v>9.213896909738546</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.17655223927744</v>
+        <v>20.94412551950426</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13.0350386116871</v>
+        <v>13.5896603214303</v>
       </c>
       <c r="D25">
-        <v>5.086690379750271</v>
+        <v>5.108026032393994</v>
       </c>
       <c r="E25">
-        <v>12.08867316284614</v>
+        <v>13.89921814801159</v>
       </c>
       <c r="F25">
-        <v>16.08351280233666</v>
+        <v>23.59515308531045</v>
       </c>
       <c r="G25">
-        <v>19.08786153472969</v>
+        <v>27.53437932032314</v>
       </c>
       <c r="H25">
-        <v>7.588630945676848</v>
+        <v>14.01861398456477</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>27.05359044135532</v>
+        <v>17.6832330814057</v>
       </c>
       <c r="L25">
-        <v>6.232707600657491</v>
+        <v>9.204517623164008</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.18468658124994</v>
+        <v>21.16880399836092</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_77/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_77/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13.43319801795061</v>
+        <v>12.17169156209475</v>
       </c>
       <c r="D2">
-        <v>5.025506521011489</v>
+        <v>4.838583629999683</v>
       </c>
       <c r="E2">
-        <v>13.79870895180907</v>
+        <v>11.37447563435215</v>
       </c>
       <c r="F2">
-        <v>23.73888337064486</v>
+        <v>15.67799052291674</v>
       </c>
       <c r="G2">
-        <v>27.78686553745599</v>
+        <v>18.57487810587213</v>
       </c>
       <c r="H2">
-        <v>14.12461759485033</v>
+        <v>7.74885137423328</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.65151356881643</v>
+        <v>24.8647600040074</v>
       </c>
       <c r="L2">
-        <v>9.202506850619693</v>
+        <v>6.036945230137633</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.35583386709204</v>
+        <v>12.28162791899784</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>13.33295043205572</v>
+        <v>11.56753291887098</v>
       </c>
       <c r="D3">
-        <v>4.968424097414155</v>
+        <v>4.662930079558816</v>
       </c>
       <c r="E3">
-        <v>13.73667503250987</v>
+        <v>10.88071801205449</v>
       </c>
       <c r="F3">
-        <v>23.8542960704896</v>
+        <v>15.45959405521966</v>
       </c>
       <c r="G3">
-        <v>27.98563544677185</v>
+        <v>18.3317138081552</v>
       </c>
       <c r="H3">
-        <v>14.20283793606021</v>
+        <v>7.876576404647688</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.91180331386633</v>
+        <v>23.26685918971026</v>
       </c>
       <c r="L3">
-        <v>9.204210684375211</v>
+        <v>5.908252469379435</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.49593963771159</v>
+        <v>12.39662993102053</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>13.27440995492887</v>
+        <v>11.18828934349784</v>
       </c>
       <c r="D4">
-        <v>4.932864739493822</v>
+        <v>4.551625330455809</v>
       </c>
       <c r="E4">
-        <v>13.70166410780223</v>
+        <v>10.57375001781909</v>
       </c>
       <c r="F4">
-        <v>23.93395073440352</v>
+        <v>15.35217149122755</v>
       </c>
       <c r="G4">
-        <v>28.12111684914884</v>
+        <v>18.23105926062524</v>
       </c>
       <c r="H4">
-        <v>14.25400941028919</v>
+        <v>7.963581573060035</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.43885356262375</v>
+        <v>22.22902457291373</v>
       </c>
       <c r="L4">
-        <v>9.206772773886609</v>
+        <v>5.831352357596761</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.58851270462081</v>
+        <v>12.48911193793816</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>13.2513343797739</v>
+        <v>11.03186401527414</v>
       </c>
       <c r="D5">
-        <v>4.91825512949019</v>
+        <v>4.505443504908482</v>
       </c>
       <c r="E5">
-        <v>13.68818202697163</v>
+        <v>10.4478793887565</v>
       </c>
       <c r="F5">
-        <v>23.96860738416449</v>
+        <v>15.31489527453438</v>
       </c>
       <c r="G5">
-        <v>28.17967415051406</v>
+        <v>18.2017505466637</v>
       </c>
       <c r="H5">
-        <v>14.27565216995571</v>
+        <v>8.00107689844458</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>15.24161966241907</v>
+        <v>21.79182149283903</v>
       </c>
       <c r="L5">
-        <v>9.208198509082917</v>
+        <v>5.800571558382514</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>21.62787751976444</v>
+        <v>12.53194223477051</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13.24755045382205</v>
+        <v>11.00578273987791</v>
       </c>
       <c r="D6">
-        <v>4.915822314480311</v>
+        <v>4.497726661441397</v>
       </c>
       <c r="E6">
-        <v>13.68599106328844</v>
+        <v>10.42693722965434</v>
       </c>
       <c r="F6">
-        <v>23.97449436096376</v>
+        <v>15.30909139114522</v>
       </c>
       <c r="G6">
-        <v>28.18959881685347</v>
+        <v>18.1975741106933</v>
       </c>
       <c r="H6">
-        <v>14.27929362967479</v>
+        <v>8.007422916224256</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>15.2086040793515</v>
+        <v>21.71836187822116</v>
       </c>
       <c r="L6">
-        <v>9.20845831392883</v>
+        <v>5.79549474120321</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.63451293146479</v>
+        <v>12.53935460073413</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>13.2740955618652</v>
+        <v>11.18618705717864</v>
       </c>
       <c r="D7">
-        <v>4.932668177917066</v>
+        <v>4.551005781285897</v>
       </c>
       <c r="E7">
-        <v>13.70147909077273</v>
+        <v>10.57205538568914</v>
       </c>
       <c r="F7">
-        <v>23.93440925017522</v>
+        <v>15.35164275531371</v>
       </c>
       <c r="G7">
-        <v>28.12189306061071</v>
+        <v>18.23061733844563</v>
       </c>
       <c r="H7">
-        <v>14.25429809432054</v>
+        <v>7.96407913697599</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.43621152171547</v>
+        <v>22.22318611347486</v>
       </c>
       <c r="L7">
-        <v>9.20679045599061</v>
+        <v>5.830934951795875</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.58903695755878</v>
+        <v>12.48966920083475</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>13.39802161099211</v>
+        <v>11.96520954698168</v>
       </c>
       <c r="D8">
-        <v>5.005936108467584</v>
+        <v>4.778759569041087</v>
       </c>
       <c r="E8">
-        <v>13.77668778292745</v>
+        <v>11.20511540480792</v>
       </c>
       <c r="F8">
-        <v>23.77684496305857</v>
+        <v>15.59703704200211</v>
       </c>
       <c r="G8">
-        <v>27.85259420519876</v>
+        <v>18.48064982060521</v>
       </c>
       <c r="H8">
-        <v>14.1509351009285</v>
+        <v>7.791035949700147</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.40047573125465</v>
+        <v>24.32556077401997</v>
       </c>
       <c r="L8">
-        <v>9.202780021005891</v>
+        <v>5.99214696677873</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>21.40277982016207</v>
+        <v>12.31652406040135</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>13.66387255244034</v>
+        <v>13.41985651932338</v>
       </c>
       <c r="D9">
-        <v>5.145155475848163</v>
+        <v>5.196338807984927</v>
       </c>
       <c r="E9">
-        <v>13.94805821406249</v>
+        <v>12.40982240910913</v>
       </c>
       <c r="F9">
-        <v>23.53821091804529</v>
+        <v>16.29732361602305</v>
       </c>
       <c r="G9">
-        <v>27.4324800205476</v>
+        <v>19.37545671841129</v>
       </c>
       <c r="H9">
-        <v>13.97321226305442</v>
+        <v>7.525595453123279</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>18.13455813549566</v>
+        <v>27.99986298813857</v>
       </c>
       <c r="L9">
-        <v>9.206918663590709</v>
+        <v>6.324037224206617</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.08974910675762</v>
+        <v>12.1668352665064</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>13.87160136469021</v>
+        <v>14.43656416254652</v>
       </c>
       <c r="D10">
-        <v>5.244189697498191</v>
+        <v>5.483596623804113</v>
       </c>
       <c r="E10">
-        <v>14.08773986681142</v>
+        <v>13.26538186426537</v>
       </c>
       <c r="F10">
-        <v>23.4065613298959</v>
+        <v>16.95292178292023</v>
       </c>
       <c r="G10">
-        <v>27.19149939364818</v>
+        <v>20.29730130961052</v>
       </c>
       <c r="H10">
-        <v>13.85789980352174</v>
+        <v>7.384423997305223</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>19.30419622444174</v>
+        <v>30.42919313878376</v>
       </c>
       <c r="L10">
-        <v>9.217236395642265</v>
+        <v>6.576151534409346</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.89197036954377</v>
+        <v>12.1950326515377</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>13.96845510094231</v>
+        <v>14.88677404235901</v>
       </c>
       <c r="D11">
-        <v>5.288428713771115</v>
+        <v>5.609747225333172</v>
       </c>
       <c r="E11">
-        <v>14.15408949993576</v>
+        <v>13.64712514315405</v>
       </c>
       <c r="F11">
-        <v>23.3563123180338</v>
+        <v>17.28274590256977</v>
       </c>
       <c r="G11">
-        <v>27.09695249776254</v>
+        <v>20.77590749136748</v>
       </c>
       <c r="H11">
-        <v>13.80876390007036</v>
+        <v>7.334040024370434</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>19.812228573458</v>
+        <v>31.47661095284865</v>
       </c>
       <c r="L11">
-        <v>9.223498870974957</v>
+        <v>6.692394831364916</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.80907083916158</v>
+        <v>12.24256764249973</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>14.00544025873686</v>
+        <v>15.05543569825302</v>
       </c>
       <c r="D12">
-        <v>5.305055304432815</v>
+        <v>5.656848311703031</v>
       </c>
       <c r="E12">
-        <v>14.17960117576173</v>
+        <v>13.79054864209529</v>
       </c>
       <c r="F12">
-        <v>23.33868253038955</v>
+        <v>17.41222331875077</v>
       </c>
       <c r="G12">
-        <v>27.06334886553498</v>
+        <v>20.96569962932378</v>
       </c>
       <c r="H12">
-        <v>13.79063581839381</v>
+        <v>7.317144839290421</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>20.00105810024045</v>
+        <v>31.86502950255782</v>
       </c>
       <c r="L12">
-        <v>9.226094662543813</v>
+        <v>6.736619322235793</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.77870285737411</v>
+        <v>12.26592615548031</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>13.99746159652836</v>
+        <v>15.01919311440249</v>
       </c>
       <c r="D13">
-        <v>5.301480203885816</v>
+        <v>5.646734278274215</v>
       </c>
       <c r="E13">
-        <v>14.17408987170619</v>
+        <v>13.75971106118777</v>
       </c>
       <c r="F13">
-        <v>23.34241703596632</v>
+        <v>17.38413393846684</v>
       </c>
       <c r="G13">
-        <v>27.07048770892707</v>
+        <v>20.92444416049727</v>
       </c>
       <c r="H13">
-        <v>13.7945187193176</v>
+        <v>7.320683150533826</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>19.96054955811304</v>
+        <v>31.78174064240413</v>
       </c>
       <c r="L13">
-        <v>9.225525657254749</v>
+        <v>6.727085890293284</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.78519747061768</v>
+        <v>12.26065157212037</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>13.97149187869805</v>
+        <v>14.90068671128637</v>
       </c>
       <c r="D14">
-        <v>5.289799164285375</v>
+        <v>5.613635769218664</v>
       </c>
       <c r="E14">
-        <v>14.1561807158648</v>
+        <v>13.6589477027238</v>
       </c>
       <c r="F14">
-        <v>23.35483381000205</v>
+        <v>17.29330614673153</v>
       </c>
       <c r="G14">
-        <v>27.09414365485092</v>
+        <v>20.79135039216758</v>
       </c>
       <c r="H14">
-        <v>13.80726289278914</v>
+        <v>7.332605115657592</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>19.8278353480906</v>
+        <v>31.50873054524211</v>
       </c>
       <c r="L14">
-        <v>9.223707940285008</v>
+        <v>6.696029176035497</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.80655187588351</v>
+        <v>12.24437995347898</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>13.95562398198389</v>
+        <v>14.82785944904864</v>
       </c>
       <c r="D15">
-        <v>5.282627550508355</v>
+        <v>5.593274311645063</v>
       </c>
       <c r="E15">
-        <v>14.14526065209841</v>
+        <v>13.59707799101471</v>
       </c>
       <c r="F15">
-        <v>23.36262191345931</v>
+        <v>17.23826876012506</v>
       </c>
       <c r="G15">
-        <v>27.10892092256303</v>
+        <v>20.71094056438895</v>
       </c>
       <c r="H15">
-        <v>13.8151314327653</v>
+        <v>7.340198088146674</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>19.74607905848043</v>
+        <v>31.34043657652993</v>
       </c>
       <c r="L15">
-        <v>9.22262370985073</v>
+        <v>6.677032349298144</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.81976567982561</v>
+        <v>12.23512141822149</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>13.86531660386784</v>
+        <v>14.40688926003978</v>
       </c>
       <c r="D16">
-        <v>5.24128145707528</v>
+        <v>5.475259641092431</v>
       </c>
       <c r="E16">
-        <v>14.08345880384061</v>
+        <v>13.24027824289579</v>
       </c>
       <c r="F16">
-        <v>23.4100402529971</v>
+        <v>16.93200634642192</v>
       </c>
       <c r="G16">
-        <v>27.19798432156321</v>
+        <v>20.26721999846881</v>
       </c>
       <c r="H16">
-        <v>13.86117786150963</v>
+        <v>7.388011466219449</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>19.27050291596231</v>
+        <v>30.35958763502083</v>
       </c>
       <c r="L16">
-        <v>9.216858592543044</v>
+        <v>6.56858444887921</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.89753097119914</v>
+        <v>12.19265639355653</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>13.81049829971005</v>
+        <v>14.14544222242982</v>
       </c>
       <c r="D17">
-        <v>5.215702477384736</v>
+        <v>5.401687956138838</v>
       </c>
       <c r="E17">
-        <v>14.04625246678165</v>
+        <v>13.01943301939941</v>
       </c>
       <c r="F17">
-        <v>23.44160764486516</v>
+        <v>16.75224858259966</v>
       </c>
       <c r="G17">
-        <v>27.25650574859248</v>
+        <v>20.01023373838003</v>
       </c>
       <c r="H17">
-        <v>13.89027707383807</v>
+        <v>7.421021541519571</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>18.97252246073845</v>
+        <v>29.74314589760181</v>
       </c>
       <c r="L17">
-        <v>9.213722849518566</v>
+        <v>6.502439740322115</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.94705378822214</v>
+        <v>12.17576253379973</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>13.77919194179887</v>
+        <v>13.99390928458737</v>
       </c>
       <c r="D18">
-        <v>5.200914200828429</v>
+        <v>5.358946461140354</v>
       </c>
       <c r="E18">
-        <v>14.02511772453844</v>
+        <v>12.89170941859792</v>
       </c>
       <c r="F18">
-        <v>23.46067094802112</v>
+        <v>16.65182929617539</v>
       </c>
       <c r="G18">
-        <v>27.29158296425252</v>
+        <v>19.86800220129838</v>
       </c>
       <c r="H18">
-        <v>13.90732662148194</v>
+        <v>7.441297894719118</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>18.79887355652386</v>
+        <v>29.38314883567817</v>
       </c>
       <c r="L18">
-        <v>9.212067010098499</v>
+        <v>6.464542334654612</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.97620310489464</v>
+        <v>12.16929160579719</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>13.76863147524469</v>
+        <v>13.94240641764063</v>
       </c>
       <c r="D19">
-        <v>5.195894382804901</v>
+        <v>5.344402570461575</v>
       </c>
       <c r="E19">
-        <v>14.01800795309943</v>
+        <v>12.84834652906261</v>
       </c>
       <c r="F19">
-        <v>23.46728077333363</v>
+        <v>16.61833811115117</v>
       </c>
       <c r="G19">
-        <v>27.3037019536073</v>
+        <v>19.82080132209957</v>
       </c>
       <c r="H19">
-        <v>13.91315293460528</v>
+        <v>7.448378924938193</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>18.73969426973193</v>
+        <v>29.26032404041982</v>
       </c>
       <c r="L19">
-        <v>9.211531785142931</v>
+        <v>6.45173681862943</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.98618656912442</v>
+        <v>12.1676466408247</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>13.8163108686402</v>
+        <v>14.17339376652336</v>
       </c>
       <c r="D20">
-        <v>5.218433327242206</v>
+        <v>5.409563923509329</v>
       </c>
       <c r="E20">
-        <v>14.0501858038802</v>
+        <v>13.04301525707583</v>
       </c>
       <c r="F20">
-        <v>23.43815332357505</v>
+        <v>16.77107611075605</v>
       </c>
       <c r="G20">
-        <v>27.25012913487537</v>
+        <v>20.03701238825865</v>
       </c>
       <c r="H20">
-        <v>13.88714706732019</v>
+        <v>7.41737270012455</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>19.00447746046661</v>
+        <v>29.80932922744522</v>
       </c>
       <c r="L20">
-        <v>9.214041371183731</v>
+        <v>6.509465854699811</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.94171311048806</v>
+        <v>12.17722224201854</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>13.97911167757828</v>
+        <v>14.93554472014763</v>
       </c>
       <c r="D21">
-        <v>5.293233652080723</v>
+        <v>5.623375900849874</v>
       </c>
       <c r="E21">
-        <v>14.16143072016116</v>
+        <v>13.68857552991845</v>
       </c>
       <c r="F21">
-        <v>23.35114865464108</v>
+        <v>17.31985996159502</v>
       </c>
       <c r="G21">
-        <v>27.08713539873062</v>
+        <v>20.83021113713845</v>
       </c>
       <c r="H21">
-        <v>13.80350662099614</v>
+        <v>7.329042456901014</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>19.86691378096278</v>
+        <v>31.58914251788818</v>
       </c>
       <c r="L21">
-        <v>9.224235770537952</v>
+        <v>6.705145830768185</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.80025171085428</v>
+        <v>12.24901108965629</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>14.08729677696336</v>
+        <v>15.42301805190098</v>
       </c>
       <c r="D22">
-        <v>5.341382982297663</v>
+        <v>5.759206662884679</v>
       </c>
       <c r="E22">
-        <v>14.23638010708071</v>
+        <v>14.10385921052116</v>
       </c>
       <c r="F22">
-        <v>23.30244239675661</v>
+        <v>17.70522401737512</v>
       </c>
       <c r="G22">
-        <v>26.99344223113803</v>
+        <v>21.39844925476696</v>
       </c>
       <c r="H22">
-        <v>13.75163309054258</v>
+        <v>7.284143163358133</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>20.40983321929972</v>
+        <v>32.7045085894222</v>
       </c>
       <c r="L22">
-        <v>9.232205257406036</v>
+        <v>6.834226948239028</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.71377229740573</v>
+        <v>12.32731349162731</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>14.02940306561503</v>
+        <v>15.16383010489696</v>
       </c>
       <c r="D23">
-        <v>5.315755104031731</v>
+        <v>5.687073956336579</v>
       </c>
       <c r="E23">
-        <v>14.19617871766742</v>
+        <v>13.88283642509427</v>
       </c>
       <c r="F23">
-        <v>23.32768763630002</v>
+        <v>17.49709694639967</v>
       </c>
       <c r="G23">
-        <v>27.04226374061602</v>
+        <v>21.0906139427569</v>
       </c>
       <c r="H23">
-        <v>13.77906325496765</v>
+        <v>7.306865411392883</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>20.12199100266949</v>
+        <v>32.11356563827332</v>
       </c>
       <c r="L23">
-        <v>9.227832675166418</v>
+        <v>6.765229835023686</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.75937888640503</v>
+        <v>12.28253504650158</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>13.81368235164775</v>
+        <v>14.16076068011173</v>
       </c>
       <c r="D24">
-        <v>5.217198966545896</v>
+        <v>5.406004580627363</v>
       </c>
       <c r="E24">
-        <v>14.04840674448635</v>
+        <v>13.03235607953656</v>
       </c>
       <c r="F24">
-        <v>23.43971217362472</v>
+        <v>16.76255507495021</v>
       </c>
       <c r="G24">
-        <v>27.25300754220785</v>
+        <v>20.02488859114716</v>
       </c>
       <c r="H24">
-        <v>13.88856114646797</v>
+        <v>7.419018311616811</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.99003787384024</v>
+        <v>29.7794251818807</v>
       </c>
       <c r="L24">
-        <v>9.213896909738546</v>
+        <v>6.50628894184877</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.94412551950426</v>
+        <v>12.17655223927745</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13.5896603214303</v>
+        <v>13.03503861168715</v>
       </c>
       <c r="D25">
-        <v>5.108026032393994</v>
+        <v>5.086690379750246</v>
       </c>
       <c r="E25">
-        <v>13.89921814801159</v>
+        <v>12.0886731628462</v>
       </c>
       <c r="F25">
-        <v>23.59515308531045</v>
+        <v>16.08351280233665</v>
       </c>
       <c r="G25">
-        <v>27.53437932032314</v>
+        <v>19.08786153472971</v>
       </c>
       <c r="H25">
-        <v>14.01861398456477</v>
+        <v>7.588630945676843</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.6832330814057</v>
+        <v>27.05359044135533</v>
       </c>
       <c r="L25">
-        <v>9.204517623164008</v>
+        <v>6.23270760065753</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>21.16880399836092</v>
+        <v>12.18468658124994</v>
       </c>
     </row>
   </sheetData>
